--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1372114.610842062</v>
+        <v>1369569.026143009</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10357448.82631056</v>
+        <v>10367347.96096032</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>418320.0334880262</v>
+        <v>416855.1052283192</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11005485.29021803</v>
+        <v>11005380.33195417</v>
       </c>
     </row>
     <row r="11">
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>111.9273983130128</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>112.3932904856839</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.00752648010864</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>8.787420751036535</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>145.5578725085364</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>157.1826414337801</v>
       </c>
     </row>
     <row r="6">
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>25.3159054168623</v>
+        <v>126.3298627762801</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>137.9265290888236</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>28.05027446198036</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>130.2071895777308</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>32.2509097230727</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>282.0260476272029</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081963</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.1970568374742</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1461,10 +1461,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.4224477376697</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>84.02406320561457</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.4255876952162</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
-        <v>188.3907690366107</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7492064608734</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1531,19 +1531,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>115.0648329620429</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1854515484204</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>164.713130801099</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>114.5120075176654</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>105.6507867899574</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2485,7 +2485,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>176.1811323375803</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>13.72582864853737</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,10 +2713,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2956,13 +2956,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0.8253826161913524</v>
+        <v>99.9742741983368</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,16 +3193,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,19 +3232,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>38.21875275158355</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>97.02629574295541</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,19 +3667,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,22 +3895,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>56.04917322725603</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>99.9742741983368</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016461</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4138,7 +4138,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,10 +4147,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>221.4418477627494</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>995.9506728057374</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="C2" t="n">
-        <v>995.9506728057374</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="D2" t="n">
-        <v>995.9506728057374</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E2" t="n">
-        <v>995.9506728057374</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>584.9647680161299</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>167.0009599143168</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>167.0009599143168</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2112.324418312743</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1759.555763042629</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1386.090004781549</v>
+        <v>1196.18634261119</v>
       </c>
       <c r="Y2" t="n">
-        <v>995.9506728057374</v>
+        <v>806.0470106353782</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>268.535689181137</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>677.4923413427749</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>677.4923413427749</v>
+        <v>571.1061430638139</v>
       </c>
       <c r="T4" t="n">
-        <v>450.1841540113767</v>
+        <v>571.1061430638139</v>
       </c>
       <c r="U4" t="n">
-        <v>450.1841540113767</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V4" t="n">
-        <v>450.1841540113767</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W4" t="n">
-        <v>450.1841540113767</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>450.1841540113767</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>450.1841540113767</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1353.10866026757</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="C5" t="n">
-        <v>984.1461433271581</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D5" t="n">
-        <v>625.8804447204077</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>625.8804447204077</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F5" t="n">
-        <v>618.9349439712042</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>200.9711358693911</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>200.9711358693911</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4577,7 +4577,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4595,22 +4595,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>2113.174258592771</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X5" t="n">
-        <v>1739.708500331692</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="Y5" t="n">
-        <v>1739.708500331692</v>
+        <v>1404.706359338657</v>
       </c>
     </row>
     <row r="6">
@@ -4647,10 +4647,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>520.9088977430002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>702.55736257324</v>
+        <v>571.1061430638139</v>
       </c>
       <c r="S7" t="n">
-        <v>702.55736257324</v>
+        <v>571.1061430638139</v>
       </c>
       <c r="T7" t="n">
-        <v>702.55736257324</v>
+        <v>571.1061430638139</v>
       </c>
       <c r="U7" t="n">
-        <v>702.55736257324</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V7" t="n">
-        <v>702.55736257324</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>702.55736257324</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>702.55736257324</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>702.55736257324</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>801.1640758398987</v>
+        <v>1670.643119699176</v>
       </c>
       <c r="C8" t="n">
-        <v>432.2015588994869</v>
+        <v>1301.680602758764</v>
       </c>
       <c r="D8" t="n">
-        <v>73.93586029273641</v>
+        <v>1301.680602758764</v>
       </c>
       <c r="E8" t="n">
-        <v>73.93586029273641</v>
+        <v>915.8923501605201</v>
       </c>
       <c r="F8" t="n">
-        <v>66.99035954353293</v>
+        <v>908.9468494113166</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>491.8590676477442</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>242.5828808341008</v>
+        <v>138.1828821533151</v>
       </c>
       <c r="K8" t="n">
-        <v>646.0499938541462</v>
+        <v>541.6499951733606</v>
       </c>
       <c r="L8" t="n">
         <v>1094.46325341956</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2557.829364665875</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2557.829364665875</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="U8" t="n">
-        <v>2304.137661411026</v>
+        <v>2072.442488527913</v>
       </c>
       <c r="V8" t="n">
-        <v>2304.137661411026</v>
+        <v>2072.442488527913</v>
       </c>
       <c r="W8" t="n">
-        <v>1951.369006140912</v>
+        <v>2072.442488527913</v>
       </c>
       <c r="X8" t="n">
-        <v>1577.903247879832</v>
+        <v>1698.976730266833</v>
       </c>
       <c r="Y8" t="n">
-        <v>1187.76391590402</v>
+        <v>1670.643119699176</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>383.3713861261743</v>
+        <v>478.5308710654409</v>
       </c>
       <c r="L9" t="n">
-        <v>887.7329259922928</v>
+        <v>982.8924109315594</v>
       </c>
       <c r="M9" t="n">
-        <v>1528.278275459397</v>
+        <v>1623.437760398664</v>
       </c>
       <c r="N9" t="n">
-        <v>2030.071016909819</v>
+        <v>1822.094502051329</v>
       </c>
       <c r="O9" t="n">
-        <v>2189.58332957858</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>390.8703919199697</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>221.9342089920628</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>1053.877663279709</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="S10" t="n">
-        <v>1053.877663279709</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="T10" t="n">
-        <v>1053.877663279709</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="U10" t="n">
-        <v>1053.877663279709</v>
+        <v>634.2475255767915</v>
       </c>
       <c r="V10" t="n">
-        <v>1053.877663279709</v>
+        <v>634.2475255767915</v>
       </c>
       <c r="W10" t="n">
-        <v>1021.300986791757</v>
+        <v>634.2475255767915</v>
       </c>
       <c r="X10" t="n">
-        <v>793.3114358937396</v>
+        <v>406.2579746787742</v>
       </c>
       <c r="Y10" t="n">
-        <v>572.5188567502095</v>
+        <v>185.4653955352441</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2316.676938649613</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1947.714421709201</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1589.44872310245</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1203.660470504206</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>792.6745657145987</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>378.6914586310051</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>93.81666304797189</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>422.5594898197631</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>892.189873607445</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1511.70965411322</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2232.714216052257</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2969.999193969363</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3652.861230428502</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4201.16717911585</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4564.749365221856</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4605.365889165443</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4404.156740844762</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4150.713411564311</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3819.65052422074</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3466.881868950626</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3093.416110689546</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2703.276778713735</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.6291563257736</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>769.1761270446466</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>620.2417173833953</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>461.0042623779398</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.4697044048247</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>178.6894541647543</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>241.4646447998178</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>571.9733873631765</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1062.705720206928</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1654.724074459055</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>2276.820037858392</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2323.219395606885</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2323.219395606885</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.780669592131</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.168964849488</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.875258751902</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>2016.845757276272</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.69364904453</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>1527.456292316328</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.604792110795</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.844493345842</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>965.7723474321512</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>796.8361645042443</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>646.7195250919085</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E13" t="n">
-        <v>498.8064315095154</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>351.916484011605</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>235.6893800095415</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>172.7987859375258</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>432.4275129080895</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>820.1893309912236</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1239.418923035683</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1654.11478882739</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2021.137245842419</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2311.667680678624</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2429.380814232059</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2429.380814232059</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2429.380814232059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2429.380814232059</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2140.304600546786</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1885.620112340899</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1596.202942303938</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1368.213391405921</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1147.420812262391</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5255,28 +5255,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075809</v>
@@ -5285,7 +5285,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5297,28 +5297,28 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637307</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860773</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5507,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,19 +5525,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245705</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>990.5373202159263</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,16 +5762,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5835,22 +5835,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>119.2902967703784</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969303</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2273.199413378161</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,16 +5999,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349513</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O24" t="n">
-        <v>2148.04349261611</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
         <v>261.0127623330919</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="26">
@@ -6221,25 +6221,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6306,25 +6306,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245705</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6443,40 +6443,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>427.7414352191925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>1025.119922845744</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1652.717886400351</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2204.627616639638</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597624</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D31" t="n">
-        <v>261.8464821474266</v>
+        <v>194.8007783998272</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,13 +6710,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852255</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6783,22 +6783,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>119.2902967703784</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969303</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951537</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711973</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888042</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362687</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349513</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N36" t="n">
-        <v>1520.445529061503</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P36" t="n">
         <v>2319.799627685893</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>800.5007694647281</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>631.5645865368213</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>481.4479471244855</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>333.5348535420924</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>333.5348535420924</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1492342949679</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7160,31 +7160,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7254,22 +7254,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>251.5626541092265</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>746.8882603249853</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M39" t="n">
-        <v>1344.266747951537</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951537</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245705</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>762.547769317909</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998272</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="44">
@@ -7622,43 +7622,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7734,19 +7734,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>868.6673633290469</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>699.73118040114</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7837,19 +7837,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1753.782446406721</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1499.097958200834</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1499.097958200834</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1271.108407302817</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1050.315828159287</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8070,10 +8070,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>350.4438349360584</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8225,7 +8225,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119837</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>422.2865794093296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>63.64207105006805</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2066704284449</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>240.7280987119431</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>306.1979795936943</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>49.74439522492764</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>-9.943717668108868e-13</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>-9.943717668108868e-13</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10364,10 +10364,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q32" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.537044377341431</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>50.47721991512404</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440903</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>2.533690297528864</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>65.31997266427192</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24175,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>75.37549921168723</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24373,7 +24373,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>211.9838267404998</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,10 +24601,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>145.6085800303778</v>
+        <v>46.45968844823237</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25120,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>213.9188905722444</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>68.49784254931343</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25594,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>111.1976478713718</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>46.45968844823237</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,10 +26035,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26077,13 +26077,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>64.74262662649471</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>933216.2051361211</v>
+        <v>933098.1413636057</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>933098.141363606</v>
+        <v>933098.1413636057</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>933098.1413636059</v>
+        <v>933098.1413636057</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>933098.1413636059</v>
+        <v>933098.1413636057</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>933098.1413636059</v>
+        <v>933098.1413636057</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>933098.1413636059</v>
+        <v>933098.1413636057</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>933098.141363606</v>
+        <v>933098.1413636057</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>933098.1413636059</v>
+        <v>933098.1413636057</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>933098.1413636059</v>
+        <v>933098.1413636057</v>
       </c>
     </row>
   </sheetData>
@@ -26314,31 +26314,31 @@
         <v>492625.0619185699</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185702</v>
+        <v>492625.0619185703</v>
       </c>
       <c r="E2" t="n">
-        <v>483936.3770316736</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="F2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="G2" t="n">
         <v>484287.9598140037</v>
       </c>
       <c r="H2" t="n">
+        <v>484287.9598140035</v>
+      </c>
+      <c r="I2" t="n">
         <v>484287.9598140037</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>484287.9598140036</v>
       </c>
-      <c r="J2" t="n">
-        <v>484287.9598140037</v>
-      </c>
       <c r="K2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="L2" t="n">
         <v>484287.9598140036</v>
@@ -26372,10 +26372,10 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>763071.3231416951</v>
+        <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
-        <v>7852.637614951069</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080586</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012794</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
-        <v>6468.874198228097</v>
+        <v>5677.53656668275</v>
       </c>
       <c r="F4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5677.536566682749</v>
+      </c>
+      <c r="H4" t="n">
         <v>5677.536566682751</v>
       </c>
-      <c r="G4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5677.536566682736</v>
-      </c>
       <c r="I4" t="n">
-        <v>5677.536566682737</v>
+        <v>5677.536566682754</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682721</v>
+        <v>5677.536566682747</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.53656668272</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.536566682729</v>
+        <v>5677.536566682752</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682721</v>
+        <v>5677.536566682749</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682721</v>
+        <v>5677.536566682747</v>
       </c>
       <c r="O4" t="n">
-        <v>5677.536566682718</v>
+        <v>5677.536566682751</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682752</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>87562.0451708468</v>
       </c>
       <c r="E5" t="n">
-        <v>100905.9587784758</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26525,43 +26525,43 @@
         <v>199843.5683921271</v>
       </c>
       <c r="D6" t="n">
-        <v>44039.76229833241</v>
+        <v>44039.7622983325</v>
       </c>
       <c r="E6" t="n">
-        <v>-386509.7790867254</v>
+        <v>-393599.5358828285</v>
       </c>
       <c r="F6" t="n">
-        <v>369635.2558084626</v>
+        <v>377453.1554979781</v>
       </c>
       <c r="G6" t="n">
-        <v>377487.8934234139</v>
+        <v>377453.1554979781</v>
       </c>
       <c r="H6" t="n">
-        <v>377487.8934234138</v>
+        <v>377453.1554979779</v>
       </c>
       <c r="I6" t="n">
-        <v>377487.8934234137</v>
+        <v>377453.1554979781</v>
       </c>
       <c r="J6" t="n">
-        <v>201064.6742308209</v>
+        <v>201029.9363053851</v>
       </c>
       <c r="K6" t="n">
-        <v>377487.8934234138</v>
+        <v>377453.155497978</v>
       </c>
       <c r="L6" t="n">
-        <v>377487.8934234137</v>
+        <v>377453.155497978</v>
       </c>
       <c r="M6" t="n">
-        <v>253279.3827153552</v>
+        <v>253244.6447899195</v>
       </c>
       <c r="N6" t="n">
-        <v>377487.8934234138</v>
+        <v>377453.1554979781</v>
       </c>
       <c r="O6" t="n">
-        <v>377487.8934234139</v>
+        <v>377453.1554979781</v>
       </c>
       <c r="P6" t="n">
-        <v>377487.8934234139</v>
+        <v>377453.155497978</v>
       </c>
     </row>
   </sheetData>
@@ -26738,13 +26738,13 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
       </c>
       <c r="E3" t="n">
-        <v>1358.041048716386</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26796,13 +26796,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26966,10 +26966,10 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>764.5649483783205</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
-        <v>9.934451625288375</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>40.00391793184842</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>257.3378101927851</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>125.6576655000492</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>203.3581181989824</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>6.373443736324873</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>229.0552972222735</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>121.3492865632956</v>
+        <v>20.33532920387776</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,7 +27828,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>16.72635803931661</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>358.1876641940732</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>49.62479060420648</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28032,7 +28032,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
@@ -28065,13 +28065,13 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>254.2720886135183</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29706,7 +29706,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.459461502377425</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91171011122282</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>463.3649706874064</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>694.463976083043</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>861.5439710364263</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>958.6336695293307</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>974.1453645229608</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>919.8578442086952</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>785.0773883687524</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>589.5604233148606</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987162</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>124.4074789854257</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>23.89879272665719</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.921069425540905</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.2113810308819</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>275.9770021735818</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>471.6886536848224</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>634.2436048745724</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>740.1323715504301</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927637</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>189.4642825742353</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>372.8719498286952</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.2575834086216</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821092</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.448926481291843</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.77318271548567</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284925</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>173.1391022273333</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>284.5207311900886</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0885788640618</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265021</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>374.7525405416874</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>346.1446266465962</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>296.1865264282424</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>205.0641983561742</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
-        <v>110.1126397860859</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.67810967851328</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
-        <v>10.46359496551969</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>483.3274636075166</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>170.9292585737929</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305192</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32555,34 +32555,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338202</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>628.2482078836097</v>
       </c>
       <c r="P24" t="n">
-        <v>307.465452939363</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>454.1257695262137</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>485.927610870024</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33503,34 +33503,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>164.2853229338202</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>688.8020111197787</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>522.1224556861829</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>382.1329742631541</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33974,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>297.1808238847171</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>326.7634969305192</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>601.0567753070492</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>729.0844763571695</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34790,10 +34790,10 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>401.1632560839187</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492232</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35015,22 +35015,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>85.09080841712189</v>
       </c>
       <c r="K8" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>452.9426864297107</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
         <v>188.5852654802098</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>309.018825644627</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
@@ -35261,7 +35261,7 @@
         <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>506.8613550004263</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
         <v>161.1235481502633</v>
@@ -35270,7 +35270,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>332.0634613856478</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380625</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>625.777556066439</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>728.287436302058</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>744.7323009263698</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870084</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>553.8443926134828</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.2547334404111</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>127.3573607845841</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>149.1393755069151</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>333.8472147104634</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>495.6892250946982</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284117</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094305</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>46.86803812979091</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>232.8901757426737</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.77992211066049</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>262.2512393642057</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>391.678604124378</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883427</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>418.8847129209161</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>370.7297545606359</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>293.4650856931358</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044798</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>340.7312191630721</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>44.09163190712619</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561602</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394599</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>485.6519634391653</v>
       </c>
       <c r="P24" t="n">
-        <v>173.4910455250327</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>351.9532034556937</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060437</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>25.73094315394599</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>546.2057666753343</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,7 +37388,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,13 +37397,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>379.5262112417385</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>248.1585668488238</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>159.3393849103582</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>188.9220579561602</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>469.7150632237159</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38023,7 +38023,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>586.9504424351511</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
